--- a/filesToRead/tabela_vendas_2025_V4_AGOSTO.xlsx
+++ b/filesToRead/tabela_vendas_2025_V4_AGOSTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VISUM\sf-massive\filesToRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAF986-C185-4F99-B1BF-229832D0DACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DE127-A841-49A0-9600-33DC56A591DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIOGELIS" sheetId="2" r:id="rId1"/>
@@ -377,18 +377,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>PR0036</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF926F4A"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">VISALIFT
 </t>
     </r>
@@ -2178,6 +2166,9 @@
   </si>
   <si>
     <t>VISALIFT</t>
+  </si>
+  <si>
+    <t>BUNDLE01</t>
   </si>
 </sst>
 </file>
@@ -5710,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5756,10 +5747,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>138</v>
       </c>
       <c r="E2" s="7">
         <v>450</v>
@@ -6004,58 +5995,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BACEF62-E69A-47F6-BBA0-DC9FE8539A39}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B1" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="G1" s="95" t="s">
         <v>146</v>
-      </c>
-      <c r="G1" s="95" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="99" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
       </c>
       <c r="E2" s="20">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="20">
-        <v>79900</v>
+        <v>48400</v>
       </c>
       <c r="G2" s="21">
-        <v>89900</v>
+        <v>55400</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -6072,10 +6063,10 @@
     </row>
     <row r="4" spans="2:7" ht="41.25" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -6092,10 +6083,10 @@
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
@@ -6112,10 +6103,10 @@
     </row>
     <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
@@ -6132,10 +6123,10 @@
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -6167,30 +6158,30 @@
   <sheetData>
     <row r="1" spans="2:7" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="90.75" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="14">
         <v>50</v>
@@ -6207,10 +6198,10 @@
     </row>
     <row r="3" spans="2:7" ht="90.75" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="14">
         <v>50</v>
@@ -6227,10 +6218,10 @@
     </row>
     <row r="4" spans="2:7" ht="90.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="14">
         <v>50</v>
@@ -6262,52 +6253,52 @@
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
       <c r="B1" s="97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="98"/>
       <c r="D1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="32">
         <v>38</v>
@@ -6316,39 +6307,39 @@
         <v>60</v>
       </c>
       <c r="G2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="38" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>75</v>
       </c>
       <c r="E3" s="39">
         <v>25</v>
@@ -6357,39 +6348,39 @@
         <v>30</v>
       </c>
       <c r="G3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>66</v>
-      </c>
       <c r="I3" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B4" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="43">
         <v>25</v>
@@ -6398,16 +6389,16 @@
         <v>30</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="47">
         <v>529</v>
@@ -6424,13 +6415,13 @@
     </row>
     <row r="5" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="50" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>82</v>
       </c>
       <c r="E5" s="51">
         <v>38</v>
@@ -6439,16 +6430,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="I5" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="J5" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>86</v>
       </c>
       <c r="K5" s="15">
         <v>395</v>
@@ -6465,13 +6456,13 @@
     </row>
     <row r="6" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="51">
         <v>60</v>
@@ -6480,16 +6471,16 @@
         <v>90</v>
       </c>
       <c r="G6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="J6" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>86</v>
       </c>
       <c r="K6" s="15">
         <v>395</v>
@@ -6527,52 +6518,52 @@
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
       <c r="B1" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="K1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="L1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="M1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="60" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>90</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>91</v>
       </c>
       <c r="E2" s="63">
         <v>100</v>
@@ -6584,13 +6575,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="15">
         <v>769</v>
@@ -6607,13 +6598,13 @@
     </row>
     <row r="3" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B3" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="D3" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="51">
         <v>100</v>
@@ -6622,16 +6613,16 @@
         <v>170</v>
       </c>
       <c r="G3" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>97</v>
-      </c>
       <c r="J3" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K3" s="15">
         <v>439</v>
@@ -6648,13 +6639,13 @@
     </row>
     <row r="4" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="51">
         <v>38</v>
@@ -6666,13 +6657,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="66">
         <v>410</v>
@@ -6708,52 +6699,52 @@
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
       <c r="B1" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>104</v>
-      </c>
-      <c r="N1" s="68" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B2" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="32">
         <v>38</v>
@@ -6762,39 +6753,39 @@
         <v>60</v>
       </c>
       <c r="G2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>66</v>
-      </c>
       <c r="I2" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="37" t="s">
         <v>109</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B3" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="39">
         <v>25</v>
@@ -6803,39 +6794,39 @@
         <v>30</v>
       </c>
       <c r="G3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>66</v>
-      </c>
       <c r="I3" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>109</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>113</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="39">
         <v>25</v>
@@ -6844,39 +6835,39 @@
         <v>30</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="M4" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="N4" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B5" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="43">
         <v>38</v>
@@ -6885,16 +6876,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="I5" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="J5" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>86</v>
       </c>
       <c r="K5" s="47">
         <v>769</v>
@@ -6911,13 +6902,13 @@
     </row>
     <row r="6" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>121</v>
-      </c>
       <c r="D6" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="51">
         <v>60</v>
@@ -6926,16 +6917,16 @@
         <v>90</v>
       </c>
       <c r="G6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="J6" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>86</v>
       </c>
       <c r="K6" s="15">
         <v>769</v>
@@ -6971,52 +6962,52 @@
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
       <c r="B1" s="101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="57" t="s">
         <v>104</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="60.75" x14ac:dyDescent="0.15">
       <c r="B2" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="77">
         <v>100</v>
@@ -7028,13 +7019,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="81">
         <v>1099</v>
@@ -7051,13 +7042,13 @@
     </row>
     <row r="3" spans="2:14" ht="54" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>124</v>
-      </c>
       <c r="D3" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="39">
         <v>100</v>
@@ -7066,39 +7057,39 @@
         <v>170</v>
       </c>
       <c r="G3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>97</v>
-      </c>
       <c r="J3" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>127</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>130</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="43">
         <v>38</v>
@@ -7110,13 +7101,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="47">
         <v>879</v>
@@ -7155,52 +7146,52 @@
   <sheetData>
     <row r="1" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B1" s="103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="M1" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="57" t="s">
         <v>104</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="54" x14ac:dyDescent="0.2">
       <c r="B2" s="92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="63">
         <v>110</v>
@@ -7209,16 +7200,16 @@
         <v>300</v>
       </c>
       <c r="G2" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="J2" s="54" t="s">
         <v>133</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>134</v>
       </c>
       <c r="K2" s="15">
         <v>329</v>

--- a/filesToRead/tabela_vendas_2025_V4_AGOSTO.xlsx
+++ b/filesToRead/tabela_vendas_2025_V4_AGOSTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VISUM\sf-massive\filesToRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DE127-A841-49A0-9600-33DC56A591DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA17F08-8304-4B76-B671-C57F406C8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIOGELIS" sheetId="2" r:id="rId1"/>
@@ -2168,7 +2168,7 @@
     <t>VISALIFT</t>
   </si>
   <si>
-    <t>BUNDLE01</t>
+    <t>PR9999</t>
   </si>
 </sst>
 </file>
@@ -5701,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -5995,11 +5995,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BACEF62-E69A-47F6-BBA0-DC9FE8539A39}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B1" s="96" t="s">
@@ -6246,7 +6249,7 @@
   <dimension ref="B1:N6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6692,7 +6695,7 @@
   <dimension ref="B1:N6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6955,7 +6958,7 @@
   <dimension ref="B1:N4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/filesToRead/tabela_vendas_2025_V4_AGOSTO.xlsx
+++ b/filesToRead/tabela_vendas_2025_V4_AGOSTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VISUM\sf-massive\filesToRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA17F08-8304-4B76-B671-C57F406C8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E399524E-AE66-4677-82D9-A7447CAB8D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIOGELIS" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
   <si>
     <r>
       <rPr>
@@ -366,29 +366,6 @@
         <family val="2"/>
       </rPr>
       <t>UN.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF926F4A"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VISALIFT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF926F4A"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>COM 3 CARTUCHOS 1,5MM, 3MM e 4,5MM</t>
     </r>
   </si>
   <si>
@@ -2169,6 +2146,13 @@
   </si>
   <si>
     <t>PR9999</t>
+  </si>
+  <si>
+    <t>VISALIFT
+COM 3 CARTUCHOS 1,5MM, 3MM e 4,5MM</t>
+  </si>
+  <si>
+    <t>PR0036</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2546,9 +2530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2800,6 +2781,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5701,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -5746,11 +5733,11 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>136</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>137</v>
       </c>
       <c r="E2" s="7">
         <v>450</v>
@@ -5993,10 +5980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BACEF62-E69A-47F6-BBA0-DC9FE8539A39}">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6005,142 +5992,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="96" t="s">
-        <v>147</v>
+      <c r="B1" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>146</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="G1" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="95" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="2" spans="2:7" ht="99" x14ac:dyDescent="0.2">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:7" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="104" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>40000</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>48400</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>55400</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
+    <row r="3" spans="2:7" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>148</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="20">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="20">
-        <v>10500</v>
-      </c>
-      <c r="G3" s="21">
-        <v>11500</v>
+      <c r="E3" s="19">
+        <v>70000</v>
+      </c>
+      <c r="F3" s="19">
+        <v>79900</v>
+      </c>
+      <c r="G3" s="20">
+        <v>89900</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>10000</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>10500</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>11500</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>10000</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>10500</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>11500</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="20">
-        <v>12500</v>
-      </c>
-      <c r="F6" s="20">
-        <v>13000</v>
-      </c>
-      <c r="G6" s="21">
-        <v>14000</v>
+      <c r="E6" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="19">
+        <v>10500</v>
+      </c>
+      <c r="G6" s="20">
+        <v>11500</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>12500</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>13000</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>12500</v>
+      </c>
+      <c r="F8" s="19">
+        <v>13000</v>
+      </c>
+      <c r="G8" s="20">
         <v>14000</v>
       </c>
     </row>
@@ -6161,38 +6168,38 @@
   <sheetData>
     <row r="1" spans="2:7" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="90.75" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="14">
         <v>50</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>1000</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>900</v>
       </c>
       <c r="G2" s="15">
@@ -6201,18 +6208,18 @@
     </row>
     <row r="3" spans="2:7" ht="90.75" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="14">
         <v>50</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>1000</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>900</v>
       </c>
       <c r="G3" s="15">
@@ -6221,18 +6228,18 @@
     </row>
     <row r="4" spans="2:7" ht="90.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="D4" s="14">
         <v>50</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>1000</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>900</v>
       </c>
       <c r="G4" s="15">
@@ -6255,246 +6262,246 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31">
+        <v>38</v>
+      </c>
+      <c r="F2" s="31">
+        <v>60</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="32">
-        <v>38</v>
-      </c>
-      <c r="F2" s="32">
-        <v>60</v>
-      </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38">
+        <v>25</v>
+      </c>
+      <c r="F3" s="38">
+        <v>30</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="39">
-        <v>25</v>
-      </c>
-      <c r="F3" s="39">
-        <v>30</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="42">
+        <v>25</v>
+      </c>
+      <c r="F4" s="42">
+        <v>30</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="I4" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="43">
-        <v>25</v>
-      </c>
-      <c r="F4" s="43">
-        <v>30</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="47">
+      <c r="J4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="46">
         <v>529</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <v>4379</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="47">
         <v>4176</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>3975</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="E5" s="50">
+        <v>38</v>
+      </c>
+      <c r="F5" s="50">
+        <v>50</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="51">
-        <v>38</v>
-      </c>
-      <c r="F5" s="51">
-        <v>50</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="H5" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="I5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="J5" s="53" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>85</v>
       </c>
       <c r="K5" s="15">
         <v>395</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>3280</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>3116</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="54">
         <v>2960</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="50">
+        <v>60</v>
+      </c>
+      <c r="F6" s="50">
+        <v>90</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="51">
-        <v>60</v>
-      </c>
-      <c r="F6" s="51">
-        <v>90</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="H6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="J6" s="53" t="s">
         <v>84</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>85</v>
       </c>
       <c r="K6" s="15">
         <v>395</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>3280</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>3116</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="54">
         <v>2960</v>
       </c>
     </row>
@@ -6520,164 +6527,164 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="L1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="M1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="59" t="s">
         <v>59</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B2" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62">
+        <v>100</v>
+      </c>
+      <c r="F2" s="62">
+        <v>185</v>
+      </c>
+      <c r="G2" s="62">
+        <v>2</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="63">
-        <v>100</v>
-      </c>
-      <c r="F2" s="63">
-        <v>185</v>
-      </c>
-      <c r="G2" s="63">
-        <v>2</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>85</v>
+      <c r="J2" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="K2" s="15">
         <v>769</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>6389</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>6069</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>5765</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="D3" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="50">
+        <v>100</v>
+      </c>
+      <c r="F3" s="50">
+        <v>170</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="51">
-        <v>100</v>
-      </c>
-      <c r="F3" s="51">
-        <v>170</v>
-      </c>
-      <c r="G3" s="50" t="s">
+      <c r="H3" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>85</v>
+      <c r="J3" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="K3" s="15">
         <v>439</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>3645</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>3465</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>3290</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="D4" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="50">
+        <v>38</v>
+      </c>
+      <c r="F4" s="50">
+        <v>50</v>
+      </c>
+      <c r="G4" s="50">
+        <v>2</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="51">
-        <v>38</v>
-      </c>
-      <c r="F4" s="51">
-        <v>50</v>
-      </c>
-      <c r="G4" s="51">
-        <v>2</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="66">
+      <c r="J4" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="65">
         <v>410</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>3369</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <v>3209</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>3042</v>
       </c>
     </row>
@@ -6701,246 +6708,246 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="N1" s="67" t="s">
         <v>103</v>
-      </c>
-      <c r="N1" s="68" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="31">
+        <v>38</v>
+      </c>
+      <c r="F2" s="31">
+        <v>60</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="32">
-        <v>38</v>
-      </c>
-      <c r="F2" s="32">
-        <v>60</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="38">
+        <v>25</v>
+      </c>
+      <c r="F3" s="38">
+        <v>30</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="39">
-        <v>25</v>
-      </c>
-      <c r="F3" s="39">
-        <v>30</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="D4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="38">
+        <v>25</v>
+      </c>
+      <c r="F4" s="38">
+        <v>30</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="39">
-        <v>25</v>
-      </c>
-      <c r="F4" s="39">
-        <v>30</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="M4" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="N4" s="36" t="s">
         <v>115</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="42">
+        <v>38</v>
+      </c>
+      <c r="F5" s="42">
+        <v>50</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="43">
-        <v>38</v>
-      </c>
-      <c r="F5" s="43">
-        <v>50</v>
-      </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="I5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="J5" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="47">
+      <c r="K5" s="46">
         <v>769</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="47">
         <v>6389</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="47">
         <v>6069</v>
       </c>
-      <c r="N5" s="72">
+      <c r="N5" s="71">
         <v>5766</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="50">
+        <v>60</v>
+      </c>
+      <c r="F6" s="50">
+        <v>90</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="51">
-        <v>60</v>
-      </c>
-      <c r="F6" s="51">
-        <v>90</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="H6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="J6" s="53" t="s">
         <v>84</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>85</v>
       </c>
       <c r="K6" s="15">
         <v>769</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>6389</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>6069</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="72">
         <v>5766</v>
       </c>
     </row>
@@ -6964,164 +6971,164 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="56" t="s">
         <v>103</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="76" t="s">
+      <c r="B2" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="76">
+        <v>100</v>
+      </c>
+      <c r="F2" s="76">
+        <v>185</v>
+      </c>
+      <c r="G2" s="76">
+        <v>2</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="77">
-        <v>100</v>
-      </c>
-      <c r="F2" s="77">
-        <v>185</v>
-      </c>
-      <c r="G2" s="77">
-        <v>2</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="81">
+      <c r="J2" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="80">
         <v>1099</v>
       </c>
-      <c r="L2" s="81">
+      <c r="L2" s="80">
         <v>9129</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="80">
         <v>8670</v>
       </c>
-      <c r="N2" s="81">
+      <c r="N2" s="80">
         <v>8242</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="54" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="38">
+        <v>100</v>
+      </c>
+      <c r="F3" s="38">
+        <v>170</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="39">
-        <v>100</v>
-      </c>
-      <c r="F3" s="39">
-        <v>170</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>126</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="43">
+      <c r="D4" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="42">
         <v>38</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>50</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="42">
         <v>2</v>
       </c>
-      <c r="H4" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="47">
+      <c r="H4" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="46">
         <v>879</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <v>7299</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="47">
         <v>6939</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="47">
         <v>6589</v>
       </c>
     </row>
@@ -7148,82 +7155,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="M1" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="56" t="s">
         <v>103</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="54" x14ac:dyDescent="0.2">
-      <c r="B2" s="92" t="s">
-        <v>143</v>
+      <c r="B2" s="91" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62">
+        <v>110</v>
+      </c>
+      <c r="F2" s="62">
+        <v>300</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="63">
-        <v>110</v>
-      </c>
-      <c r="F2" s="63">
-        <v>300</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="J2" s="53" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>133</v>
       </c>
       <c r="K2" s="15">
         <v>329</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2" s="54">
         <v>2799</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2" s="54">
         <v>2609</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>2499</v>
       </c>
     </row>
